--- a/docs/mcode-r4/obf-EncounterDiagnosis-extension.xlsx
+++ b/docs/mcode-r4/obf-EncounterDiagnosis-extension.xlsx
@@ -203,7 +203,7 @@
     <t>diagnosiscode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-DiagnosisCode-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-DiagnosisCode-extension}
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Condition-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Condition-extension}
 </t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t>priorityrank</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PriorityRank-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-PriorityRank-extension}
 </t>
   </si>
   <si>
@@ -235,7 +235,7 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Type-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Type-extension}
 </t>
   </si>
   <si>
@@ -264,7 +264,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Type-extension</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Type-extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -292,7 +292,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/StructureDefinition/obf-EncounterDiagnosis-extension</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/obf-EncounterDiagnosis-extension</t>
   </si>
   <si>
     <t>base64Binary
